--- a/src/lecture3/scores.xlsx
+++ b/src/lecture3/scores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>名前</t>
   </si>
@@ -95,6 +95,51 @@
   </si>
   <si>
     <t>加藤美咲</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Sora Yamamoto</t>
+  </si>
+  <si>
+    <t>Haru Suzuki</t>
+  </si>
+  <si>
+    <t>Yuki Tanaka</t>
+  </si>
+  <si>
+    <t>Mei Kobayashi</t>
+  </si>
+  <si>
+    <t>Kaito Ito</t>
+  </si>
+  <si>
+    <t>Aoi Nakamura</t>
+  </si>
+  <si>
+    <t>Ren Sato</t>
+  </si>
+  <si>
+    <t>Riko Matsubara</t>
+  </si>
+  <si>
+    <t>Daiki Kondo</t>
+  </si>
+  <si>
+    <t>Nao Fujii</t>
   </si>
 </sst>
 </file>
@@ -489,186 +534,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C2">
+        <v>73</v>
+      </c>
+      <c r="D2">
+        <v>91</v>
+      </c>
+      <c r="E2">
         <v>85</v>
-      </c>
-      <c r="D2">
-        <v>74</v>
-      </c>
-      <c r="E2">
-        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B3">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D3">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E3">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C4">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B5">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D5">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E5">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C6">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D6">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E6">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B7">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C7">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B8">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C8">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E8">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C9">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D9">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E9">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C10">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D10">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="E10">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C11">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D11">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E11">
         <v>82</v>

--- a/src/lecture3/scores.xlsx
+++ b/src/lecture3/scores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>名前</t>
   </si>
@@ -140,6 +140,33 @@
   </si>
   <si>
     <t>Nao Fujii</t>
+  </si>
+  <si>
+    <t>佐藤 太郎</t>
+  </si>
+  <si>
+    <t>鈴木 花子</t>
+  </si>
+  <si>
+    <t>高橋 一郎</t>
+  </si>
+  <si>
+    <t>田中 美咲</t>
+  </si>
+  <si>
+    <t>渡辺 里奈</t>
+  </si>
+  <si>
+    <t>山本 翔</t>
+  </si>
+  <si>
+    <t>中村 優子</t>
+  </si>
+  <si>
+    <t>小林 大輔</t>
+  </si>
+  <si>
+    <t>加藤 麻衣</t>
   </si>
 </sst>
 </file>
@@ -534,189 +561,189 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B3">
+        <v>88</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="D3">
         <v>76</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>82</v>
-      </c>
-      <c r="D3">
-        <v>69</v>
-      </c>
-      <c r="E3">
-        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C5">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E5">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C6">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E6">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B7">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C7">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D7">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E7">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C9">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E9">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>69</v>
       </c>
       <c r="C10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>84</v>
       </c>
       <c r="C11">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D11">
         <v>86</v>
       </c>
       <c r="E11">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
